--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.59272844937679</v>
+        <v>0.5921199760866448</v>
       </c>
       <c r="E2">
-        <v>0.59272844937679</v>
+        <v>0.5921199760866448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.002605012091998097</v>
+        <v>0.002613423715615775</v>
       </c>
       <c r="E3">
-        <v>0.002605012091998097</v>
+        <v>0.002613423715615775</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.785237759131477E-05</v>
+        <v>2.736856800357776E-05</v>
       </c>
       <c r="E4">
-        <v>2.785237759131477E-05</v>
+        <v>2.736856800357776E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.06072370217668349</v>
+        <v>0.06081060715217985</v>
       </c>
       <c r="E5">
-        <v>0.06072370217668349</v>
+        <v>0.06081060715217985</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9353758489073094</v>
+        <v>0.935004063684319</v>
       </c>
       <c r="E6">
-        <v>0.9353758489073094</v>
+        <v>0.935004063684319</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9939588816363688</v>
+        <v>0.3548207819466465</v>
       </c>
       <c r="E7">
-        <v>0.006041118363631193</v>
+        <v>0.6451792180533535</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9931002501763333</v>
+        <v>0.9999769332025726</v>
       </c>
       <c r="E8">
-        <v>0.006899749823666701</v>
+        <v>2.30667974273624E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9979630345739354</v>
+        <v>0.9943894140727879</v>
       </c>
       <c r="E9">
-        <v>0.002036965426064574</v>
+        <v>0.005610585927212086</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9930509876890293</v>
+        <v>0.9999990182449792</v>
       </c>
       <c r="E10">
-        <v>0.00694901231097067</v>
+        <v>9.817550208346404E-07</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9974119389268161</v>
+        <v>0.999998364899359</v>
       </c>
       <c r="E11">
-        <v>0.002588061073183878</v>
+        <v>1.635100640995368E-06</v>
       </c>
       <c r="F11">
-        <v>0.3727310597896576</v>
+        <v>0.4737389087677002</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9936547479407123</v>
+        <v>0.9935451281299104</v>
       </c>
       <c r="E12">
-        <v>0.9936547479407123</v>
+        <v>0.9935451281299104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0001081418626758405</v>
+        <v>0.000107345042758357</v>
       </c>
       <c r="E13">
-        <v>0.0001081418626758405</v>
+        <v>0.000107345042758357</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4.866866991777609E-08</v>
+        <v>5.023530983791071E-08</v>
       </c>
       <c r="E14">
-        <v>4.866866991777609E-08</v>
+        <v>5.023530983791071E-08</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.007679528048625958</v>
+        <v>0.007650722287259481</v>
       </c>
       <c r="E15">
-        <v>0.007679528048625958</v>
+        <v>0.007650722287259481</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9787112429582546</v>
+        <v>0.9788794552197997</v>
       </c>
       <c r="E16">
-        <v>0.9787112429582546</v>
+        <v>0.9788794552197997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9965142590894345</v>
+        <v>0.01340822701728257</v>
       </c>
       <c r="E17">
-        <v>0.003485740910565527</v>
+        <v>0.9865917729827174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9964580321921161</v>
+        <v>0.9999999992921746</v>
       </c>
       <c r="E18">
-        <v>0.00354196780788385</v>
+        <v>7.078253538850277E-10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9993114930676695</v>
+        <v>0.9985298249144169</v>
       </c>
       <c r="E19">
-        <v>0.0006885069323304682</v>
+        <v>0.001470175085583114</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9964231241808938</v>
+        <v>0.9999968509380414</v>
       </c>
       <c r="E20">
-        <v>0.003576875819106151</v>
+        <v>3.149061958640509E-06</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.998981828645421</v>
+        <v>0.999994889272796</v>
       </c>
       <c r="E21">
-        <v>0.001018171354579045</v>
+        <v>5.110727203994081E-06</v>
       </c>
       <c r="F21">
-        <v>0.892977237701416</v>
+        <v>1.322158455848694</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
